--- a/datasets.xlsx
+++ b/datasets.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="24">
   <si>
     <t>Dataset</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>https://www.openml.org/d/589</t>
+  </si>
+  <si>
+    <t>rmftsa_ladata</t>
+  </si>
+  <si>
+    <t>OpenML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -533,21 +548,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I26"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="1.125" customWidth="1"/>
-    <col min="2" max="2" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="36.875" customWidth="1"/>
+    <col min="1" max="1" width="1.09765625" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:9" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:9" ht="6.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -570,7 +585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B3" s="3" t="s">
         <v>7</v>
       </c>
@@ -590,7 +605,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
@@ -610,7 +625,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
@@ -630,7 +645,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
@@ -650,7 +665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="2" t="s">
         <v>11</v>
       </c>
@@ -670,7 +685,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>12</v>
       </c>
@@ -690,7 +705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -710,29 +725,29 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="2">
+        <v>508</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="2">
-        <v>1599</v>
-      </c>
-      <c r="F10" s="2">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>16</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>2</v>
@@ -741,7 +756,7 @@
         <v>14</v>
       </c>
       <c r="E11" s="2">
-        <v>4898</v>
+        <v>1599</v>
       </c>
       <c r="F11" s="2">
         <v>11</v>
@@ -750,102 +765,122 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2">
+        <v>4898</v>
+      </c>
+      <c r="F12" s="2">
+        <v>11</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
